--- a/data/statistic_results/sentiment_阿里健康大药房.xlsx
+++ b/data/statistic_results/sentiment_阿里健康大药房.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9997687564900195</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9999311219192286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.999401818999393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6290409474565859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.03474245512873075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9930439404865452</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9999285785296659</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9920361578394539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6239188384960896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9988813620201311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9980358909571811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9997446012886566</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9997893314311892</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9946695680645987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8322236609511224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9926439968885652</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.6342242730058822</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9997147692599404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6761849939637354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.9843717050053202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.5407937969880512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9743575105409232</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.9894999250885324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.6959817252039597</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9778068320219857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9599873659933145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9593906427966927</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.6508159456083917</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9651534384262426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9999946179773693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9878374322353283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9460766440838637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.9999670139466454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.9955335938955983</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.6241255261233076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3901397612364874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.6212883238133589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.4307295816685246</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9755742742321156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2836048164127318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.6317358893940848</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.5590459959343985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5330145531834685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.8995578413747487</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9672101076194362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9913743434136217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.4106939704209327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.9772768702550569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.8921945610204429</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9999485130842241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-0.2738050124199778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.689028136740744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.8553331375053388</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9112245071136351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.7982189268201501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.9953562410021641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.80213922254067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9948446637712058</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.5314512310928567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2729793217091514</v>
+        <v>0.1364896608545757</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9549266143772084</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.9986660386839077</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9915331668225706</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="66">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.9996782247151748</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="67">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.9990858454948202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.9822996552180869</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="69">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.4521265030799582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.09381437221748024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.9814423964515446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.9794005564164316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.8073703590310068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.7312692200884303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.9901635477651078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.9999992631487025</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="77">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-0.07924457116082428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.4216328493148689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.9987260389388446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.877500267027898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.6948044319056144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.9995276750325135</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.4008396743000102</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="84">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-0.5704371320145316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.8314651397186141</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9649814528059102</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="87">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9619355988907858</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="88">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9915035323481338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9999968751032415</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="90">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.9975399483192728</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="91">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-0.1647846865171672</v>
+        <v>-0.08239234325858358</v>
       </c>
     </row>
     <row r="92">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.7783717733505255</v>
+        <v>0.3891858866752628</v>
       </c>
     </row>
     <row r="93">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.8110016492440575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.9937703449259496</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="95">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9389997555293941</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="96">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.999999937868765</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.9967310449507696</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-0.6838255912511997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.8998507409195284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.9414610755802892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.9448518995189727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.8755842642863738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-0.6471559332516845</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9898828711897469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9626687934035698</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="107">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.6483826217497501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.9761879040447827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9994211034063716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9476060482236839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9987108555829625</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="112">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-0.2749768852357874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.7373209138059931</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.8874569676625175</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="115">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9576484715029807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-0.2061938803954118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9808409190108229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.7723399183496042</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="121">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9996623739180319</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="122">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9937284826784594</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.829300220939087</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.1884362487897411</v>
+        <v>0.09421812439487054</v>
       </c>
     </row>
     <row r="125">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8486558355449856</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.7916076379479575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9999514728595826</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="128">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.7442142044182349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.9989316193670781</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="130">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.989304066095714</v>
+        <v>0.494652033047857</v>
       </c>
     </row>
     <row r="131">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.8181345383420846</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.999942819799791</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="133">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.8470403849998087</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="134">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.7246437554774863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.6887261973089858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.7247216666249969</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.5930373125853166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9940527978180034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.6247183622529957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.3265723653938355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.1634353446895549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.993469188702752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9889890841640923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-0.9580779555332637</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="145">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.9994739956300085</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="146">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.9921322751475397</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.644759575401288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.6278259881805135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9985282827402384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-0.5071171511349997</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.7985844346394899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-0.7740975976646278</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="153">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9979005000709145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.4815069224310036</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="155">
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.8817658757584956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.5194650568135011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9736035017043283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.1565410243201335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.5218877460599438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9780211778097547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.9769556292182995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9578980510009165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.5239506470860829</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.6830195924008942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-0.6485958566785932</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-0.06095943448894969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.9076079035321958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.9706952460000136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-0.8992477699762855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.5555509129749499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.9804682726600178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.9999999982764183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.5236939392890922</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-0.9997699839808798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-0.8901997860038589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>-0.9999678367143052</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="177">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-0.7620184339226947</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.6785565488259819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.04369030706535226</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-0.999976352866681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-0.9990791727193122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-0.9999994063572943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-0.9999631885961113</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="184">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-0.9708280319507487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.7678820535494713</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="186">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-0.966208421999228</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.999993025994043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.1193667115161554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-0.9088432757492078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.8678993733205465</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="191">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-0.9870126418240575</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-0.9999994026686772</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="193">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-0.9999509794854085</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="194">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-0.9996131160999366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-0.02586316848754211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-0.2147849392570469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-0.9229103649838715</v>
+        <v>-0.4614551824919357</v>
       </c>
     </row>
     <row r="198">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.4418966085536609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9424024704201692</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="200">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.9505090487002081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.4527826183430392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="203">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.988176003928517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.8131052371066234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.55534177913714</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="206">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.6173656859333911</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="207">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-0.9999999999998082</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="208">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.9941072259656354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.9999548146267392</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="210">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.8457941490293281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.9971227036631416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9112521713019397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.7074973849224377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-0.7157973389701677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-0.6491115311318369</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.9979001889765018</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-0.9428652180862864</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="218">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.9969093988371216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-0.9999999999999996</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="220">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.9671143848694712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.9997611175498671</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="222">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.9999970420623914</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="223">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9568326945996677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.9714072703725167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.3518068843995756</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="226">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.9893942947620566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.9564223116682844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.9695430954282553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.9896963006780559</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="230">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.8916199962692395</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="231">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.9664057314065697</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.5644033649086184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.9336682834834129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.7766910314051498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.7655051446243772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.9976439034005973</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="237">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.1273822939393068</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="238">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.8848208591790885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.5826087393900701</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.9997594949463926</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="241">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.9999999999908851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.9989590778200252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.9157668172934845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.9015002561122174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.9671891139839759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.995566956179085</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="247">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.9984565419799132</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="248">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.4355676292893877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.9999324561770977</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="250">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.953468210899147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-0.9190144352418876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.9892000810893093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.9803133948364189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.9984333834743722</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="255">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.9989970813154119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-0.9573357984196387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.904600068293089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-0.927019981781837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.9486867377063988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.3257325464239529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.5236797663310011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.5792489308975499</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="263">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.003688147894731264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.9225535855489742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-0.9920303524461229</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="266">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.844833238061091</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="267">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.7513393346516561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.9705561773536229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.3384147544040828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.9449557411753109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.9475873766341638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.9617393073683751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.9806709895156651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.9753436614716138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.9563386339386248</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="276">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.9999269093458769</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="277">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.9681576276981743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.6754152170027761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.1808251701873851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.3261441414088302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.9999196562782764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.9092307598441749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.8409416164845673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.9917707536074658</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="285">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.9942011764798917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-0.9813025013850223</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="288">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.7537488087755206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.6757951380374014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.9101447421221613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.999962894267074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.5000974869519552</v>
+        <v>0.2500487434759776</v>
       </c>
     </row>
     <row r="293">
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.9465449117292135</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="294">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.4921574710625229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.9802267913965612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.7614960180325838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.6666401040775072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-0.9979918805576717</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="299">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.859631813154583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.6241255261233076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.7442142044182349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.307082526575164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.1851851851851845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.9613857870820885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.9948518406994635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-0.9230824440447778</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="307">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-0.3567049178601067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.942489558449809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.9891073290769707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-0.9963241401082346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.9931267420524454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.9933307464267049</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="313">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.8519523961498872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.7456816276679752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.997348519642892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.9803619715041316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.3926406940960816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-0.8207068997616567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.7399805539022479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.9999992254548149</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="321">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.8621341448864783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.007542265184490082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.9938681331541555</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="324">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.8929795176777164</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="325">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.9980449841607586</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="326">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.9988966121995206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-0.805056504999629</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="328">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.967947687541709</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="329">
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-0.393621073316559</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="330">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.999249455408215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-0.6615044052888133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.7467617723809581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.990473545211906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.9953219851921382</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="335">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.1203653441909818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.9999944015754918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.9789384230323837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-0.1353939270421896</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="339">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.2607741418387384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.9989055293590037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.8938732728110446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.2004799626085938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-0.9976185456230284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.8355961550729218</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="345">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.4839016708054114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.7749504408046328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.9891257766454118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.3586311263976731</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="349">
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.9999998304601687</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="350">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.01240739989695294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.9999194722529305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.9809611203087654</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="353">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.9081484192042293</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="354">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.7875852859380099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.9606813866961368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.7937142003466897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.9999999999999711</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="358">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-0.1433719656945998</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="359">
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.5722558774308695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-0.1134135667491969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.9019277436781914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.907351768989036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-0.08326936308030164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-0.3488771517370088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -9557,7 +9557,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.3901136692652767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.4935577369341231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.918735504850279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.9951502009896598</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="369">
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-0.1902221754625431</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="370">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.991690846701377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.9988741672392969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.9616041738126937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -9757,7 +9757,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.9897677118953598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.5905851834189069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-0.08677549566120724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.9704638534626695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -9857,7 +9857,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.9962008142836745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.9911539668695544</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="379">
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.915657970933373</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="380">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.4196839831521566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.7665103747754829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-0.9490910812384492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.7460705075792275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-0.9414814726288003</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="385">
@@ -10057,7 +10057,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.9998059971242181</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="386">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.4173630978811327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -10107,7 +10107,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.9300914542705021</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="388">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.9715565504764658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -10157,7 +10157,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-0.3610974378312288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-0.9863600038901403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -10207,7 +10207,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.9976681051969714</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="392">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-0.7172915571548537</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="393">
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.3585767325707907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.9999942164688369</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="395">
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.2856182250528729</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="396">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-0.371013753067488</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="397">
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.8410526531767739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -10382,7 +10382,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.9825317298775247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-0.7807946362059719</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="400">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-0.9990524965648107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.9265989709210465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.8608540306370707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -10507,7 +10507,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.9408157729904865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>0.9528715390433433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.8878549317271491</v>
+        <v>0.4439274658635746</v>
       </c>
     </row>
     <row r="406">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.9533431203438538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -10607,7 +10607,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.9995776620483319</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="408">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.480330509984713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.3117256417880858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-0.9650197839178511</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="411">
@@ -10707,7 +10707,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.9171197741101522</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="412">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.9979374021693408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-0.5558533067912359</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="414">
@@ -10782,7 +10782,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.8753028119650188</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="415">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0.9960679704209268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>0.989855654990597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0.992454572149563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.8814320139734617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.5669605613225484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-0.9999999411813527</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="421">
@@ -10957,7 +10957,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.9995493233312267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-0.9999999528346997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="423">
@@ -11007,7 +11007,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0.747579914897055</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="424">
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-0.9841050104641089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>0.7487469995987819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.9799654171966548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.9933678326407638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-0.9985421045439571</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.6944034830970727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.9954490620969709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.7660306350159762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.783517402789585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -11257,7 +11257,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>0.9503767041044942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.9972937175317937</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="435">
@@ -11307,7 +11307,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.7592057680229463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-0.0003855439128468419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.9206873919835168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>0.996632998865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>0.7136250328375182</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="440">
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.9997668226131609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.6374102196914651</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="442">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>0.9257143032086701</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="443">
@@ -11507,7 +11507,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.9998980730510794</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="444">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>0.3723838106399249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>0.8202547278416286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>0.9157343660816468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.3190624220637097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -11632,7 +11632,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.9777231978613548</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="449">
@@ -11657,7 +11657,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.7003100560238706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.6652510398233171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.9999986003644403</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="452">
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.9882708479788247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -11757,7 +11757,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0.9491139524412591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="455">
@@ -11807,7 +11807,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.6821589488045776</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="456">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-0.1631908194415213</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="457">
@@ -11857,7 +11857,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.9639256634036866</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="458">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.9536345698636832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>0.998060097441406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.08426605290883327</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
@@ -11957,7 +11957,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.4393546616879953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.5836415603165548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.9097889469784803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.8765829364664683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.9805616237623003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.9988060109021231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.981883864316339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0.7075214581338416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0.8623409925793915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.9160192814997339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.4478299971146524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>0.9118135335421838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>0.9438343617615577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-0.6397285058590927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -12307,7 +12307,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>0.6186231940056566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>0.52929169117282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>0.9527624812508235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-0.3659965550732276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-0.1980410560753039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-0.3134518591371749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0.9534091054518599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.5659224389899178</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="483">
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0.9999974335335353</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="484">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-0.9440185000160941</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="485">
@@ -12557,7 +12557,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-0.9493145911521939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.4336359798472442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>0.9878874372748259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0.2859624152321343</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="489">
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>0.4584016501083552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0.9994319517375654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>-0.999999127356306</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0.9602315131756691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>0.4808770754616172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0.8409416164845651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0.9547175515162081</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="496">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.9630250718196314</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="497">
@@ -12857,7 +12857,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0.3728689434769976</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="498">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>0.5250051434392897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0.7541953128570318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.9996231040379595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-0.9999941553188116</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="502">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.5995259295882738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>0.9900834011549686</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="504">
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>0.9638165682622319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -13057,7 +13057,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-0.1444871506440866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>0.8540833787145781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -13107,7 +13107,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>0.9129253371100581</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="508">
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.8415849370628445</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="509">
@@ -13157,7 +13157,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>0.9980585821714609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>0.9983862337956455</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="511">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0.5902483141962951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.9999327847395356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>0.9969551198579318</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="514">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-0.1066584928828629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -13307,7 +13307,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.9999999253972389</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="516">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.4592303251043246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-0.7665505445462952</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="518">
@@ -13382,7 +13382,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>0.9922378665014935</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="519">
@@ -13407,7 +13407,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-0.993457254452218</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="520">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-0.9076868653458721</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="521">
@@ -13457,7 +13457,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>0.9789286661636833</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="522">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>0.9999991335728438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>0.8627030944929071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.9682591107620231</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="525">
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>0.9649311795173685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.2008731543301283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>0.9894716762804696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0.9989469636518455</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="529">
@@ -13657,7 +13657,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>0.7354212005412242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.6082419559148406</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="531">
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>0.9994910065793172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -13732,7 +13732,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>0.7530578904421512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.9964094300973854</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="534">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>0.9721088030294334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-0.9999720789082265</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="536">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>0.9999916525344834</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="537">
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>0.663290365074906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.8711880751281933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>0.8545325568656421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>0.8225543764953114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -13957,7 +13957,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.9963166990595707</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="542">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.8917857427445965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.9957104879033922</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="544">
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.08280344544742091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -14057,7 +14057,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.6425902250851252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.9985918987244857</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="547">
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.7594951117102198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.9871081811334839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-0.3166882329058895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.7801050377509406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -14207,7 +14207,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-0.9156899706741255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.8379493604372539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -14257,7 +14257,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.9066099744647786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.991171453997584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -14307,7 +14307,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>0.9999212777794666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.9076079035321958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.6585902620446129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.2607741418387384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.7247873973096004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.9539509575907172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>0.9993345669180378</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="562">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>0.9766621319790312</v>
+        <v>0.4883310659895156</v>
       </c>
     </row>
     <row r="563">
@@ -14507,7 +14507,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.9999773132233298</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="564">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>0.140855754703844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-0.1422277113073709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>0.9999005416116464</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="567">
@@ -14607,7 +14607,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>0.6933188993298383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.1632273337458887</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="569">
@@ -14657,7 +14657,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>0.935278801778699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>0.5555555555555558</v>
+        <v>0.2777777777777779</v>
       </c>
     </row>
     <row r="571">
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>0.9971091791537252</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="572">
@@ -14732,7 +14732,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>0.6238811126483019</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="573">
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>0.7224264705882353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>0.117495887958508</v>
+        <v>0.05874794397925398</v>
       </c>
     </row>
     <row r="575">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>0.8249452014855339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>0.3349466741080036</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="577">
@@ -14857,7 +14857,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>0.9863513083605802</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="578">
@@ -14882,7 +14882,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-0.170413139757158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-0.7695070566929143</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="580">
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-0.9999013338975344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -14957,7 +14957,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>0.8145614014895157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>0.7539226699335169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -15007,7 +15007,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.7011302934094996</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="584">
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>0.9991948691384245</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="585">
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>0.9742881791709468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -15082,7 +15082,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>0.9973383627586767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -15107,7 +15107,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-0.625657333258594</v>
+        <v>-0.312828666629297</v>
       </c>
     </row>
     <row r="588">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.9872012511233665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -15157,7 +15157,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>0.9675437658040527</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="590">
@@ -15182,7 +15182,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-0.1858104178320015</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="591">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-0.2454658863759624</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="592">
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>0.3204497814586287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -15257,7 +15257,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>0.9036246579169955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-0.8341314520844825</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="595">
@@ -15307,7 +15307,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>0.9996881009688718</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="596">
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-0.9991863156331899</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="597">
@@ -15357,7 +15357,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>0.5970822747148763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>0.4335665946705032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -15407,7 +15407,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0.999984168810762</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="600">
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>0.5267857142857144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -15457,7 +15457,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>0.905753323103708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>0.9912766118496565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -15507,7 +15507,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>0.9006112033848837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>0.7751659657853982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -15557,7 +15557,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>0.9999827415502378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -15582,7 +15582,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.7405551312451328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.9589698742044122</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="608">
@@ -15632,7 +15632,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.2503519413057975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -15657,7 +15657,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>0.09645603308042272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>0.9680139940629475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.9677285467803454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-0.3295702777777214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -15757,7 +15757,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-0.9927163912699073</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="614">
@@ -15782,7 +15782,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.1493365954643828</v>
+        <v>0.07466829773219141</v>
       </c>
     </row>
     <row r="615">
@@ -15807,7 +15807,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>0.9452723156761633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -15832,7 +15832,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-0.9999977799941284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -15857,7 +15857,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-0.923813043873585</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="618">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-0.6347151687218002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-0.738227708852129</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="620">
@@ -15932,7 +15932,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.5731106210292631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>0.3888610424533991</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="622">
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-0.4544718521655202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-0.4844270766155132</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="624">
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>0.9561500998499131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>0.9940121054717208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -16082,7 +16082,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-0.08809514271890229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -16107,7 +16107,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.7632810373266343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -16132,7 +16132,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>0.9966993778349427</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="629">
@@ -16157,7 +16157,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.1237290336897443</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="630">
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-0.9854007275957426</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="631">
@@ -16207,7 +16207,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>0.9931391571967916</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="632">
@@ -16232,7 +16232,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.6492874975095011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>0.861939174875765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>0.0990989673836955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>0.9169174619071445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>0.9988898171025906</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="637">
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>0.9735623569463026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>0.9408180673892461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>0.9998674084101791</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="640">
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>0.9440731644119957</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="641">
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-0.1987856542269375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>0.373438412079977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>0.5674577906664731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -16532,7 +16532,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.8775250545656692</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="645">
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>0.9105736320840494</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="646">
@@ -16582,7 +16582,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-0.909600151937219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -16607,7 +16607,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-0.7029794802291269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -16632,7 +16632,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-0.9993361182850435</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="649">
@@ -16657,7 +16657,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>0.6555865025572511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -16682,7 +16682,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-0.9983680533596002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -16707,7 +16707,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>0.926016253739983</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="652">
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>0.766759369932452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -16757,7 +16757,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.801669917666469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-0.2680570133461724</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="655">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>0.8342719182751852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -16832,7 +16832,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>0.9858519453938106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -16857,7 +16857,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>-0.8101870488547798</v>
+        <v>-0.4050935244273899</v>
       </c>
     </row>
     <row r="658">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>0.8616114160194617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -16907,7 +16907,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>0.4953066681233804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-0.9771236712586524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -16957,7 +16957,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.9999944929448463</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="662">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-0.3194218530396362</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="663">
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>0.05981524465362731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-0.879927977685963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -17057,7 +17057,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.9998362139735881</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="666">
@@ -17082,7 +17082,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>0.7502611364225826</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="667">
@@ -17107,7 +17107,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-0.9946567836045868</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="668">
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>0.8514332310750548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -17157,7 +17157,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>0.9204436133288634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>-0.8346838968498498</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="671">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>0.8863256358702323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -17232,7 +17232,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>0.9762835950177025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -17257,7 +17257,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>0.9998576103532766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -17282,7 +17282,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>0.9738720434519226</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="675">
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>0.9877254838879923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -17332,7 +17332,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>0.985684306386956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -17357,7 +17357,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>0.9893560574569586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -17382,7 +17382,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-0.7236560211373688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-0.962936832612471</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="680">
@@ -17432,7 +17432,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-0.9973500603662515</v>
+        <v>-0.4986750301831258</v>
       </c>
     </row>
     <row r="681">
@@ -17457,7 +17457,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>0.9999824743915888</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="682">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-0.9909974575416745</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683">
@@ -17507,7 +17507,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-0.6920436114219586</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="684">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-0.4662343658779857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -17557,7 +17557,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>0.9781603750939143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -17582,7 +17582,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>0.9990065656458844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>0.8181097016418686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>0.9117620145636982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -17657,7 +17657,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>0.4167965080574816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-0.2076358846661144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -17707,7 +17707,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.9999987524444938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-0.4659614088796287</v>
+        <v>-0.2329807044398143</v>
       </c>
     </row>
     <row r="693">
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>0.999994312027636</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="694">
@@ -17782,7 +17782,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0.9999626719486174</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="695">
@@ -17807,7 +17807,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>0.6568492441998204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -17832,7 +17832,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>0.9016048922929123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -17857,7 +17857,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>0.2397160398275826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -17882,7 +17882,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.9983221375453759</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="699">
@@ -17907,7 +17907,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>-0.9427542575237622</v>
+        <v>-0.4713771287618811</v>
       </c>
     </row>
     <row r="700">
@@ -17932,7 +17932,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>0.9094433362370087</v>
+        <v>0.4547216681185043</v>
       </c>
     </row>
     <row r="701">
@@ -17957,7 +17957,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>0.5341853409701531</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="702">
@@ -17982,7 +17982,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>0.183176478896546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-0.9694697934947782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -18032,7 +18032,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>0.4175616375433067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -18057,7 +18057,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>0.1619300065996805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-0.2798999741440924</v>
+        <v>-0.1399499870720462</v>
       </c>
     </row>
     <row r="707">
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>0.7242356011375892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -18132,7 +18132,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.4997844889084209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -18157,7 +18157,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-0.7567450490368157</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="710">
@@ -18182,7 +18182,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0.956993146326927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -18207,7 +18207,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>0.4850395553669333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -18232,7 +18232,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>0.9999203465349922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -18257,7 +18257,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.8663343776347463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -18282,7 +18282,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>0.996330823545762</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="715">
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>0.7576083972378493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>0.572962532610487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>0.8840078736697305</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="718">
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>0.990988854087977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-0.9136382678991068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>0.9999998380547723</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="721">
@@ -18457,7 +18457,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>0.981640402365292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -18482,7 +18482,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>0.9478045186227562</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="723">
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>0.9990015454272503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>0.8340208878827811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -18557,7 +18557,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>0.8455610048316862</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="726">
@@ -18582,7 +18582,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-0.9896389008844899</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="727">
@@ -18607,7 +18607,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>0.5840325498394803</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="728">
@@ -18632,7 +18632,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>0.9992227809418499</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="729">
@@ -18657,7 +18657,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-0.03824320879837928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -18682,7 +18682,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>0.9646691041162179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -18707,7 +18707,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-0.1764190543177555</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="732">
@@ -18732,7 +18732,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>0.6087288329663039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -18757,7 +18757,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>0.9474482745152468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -18782,7 +18782,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>0.9999993123512543</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="735">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>0.8747806718494806</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="736">
@@ -18832,7 +18832,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>0.9514850715771987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -18857,7 +18857,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>0.5403992356389042</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="738">
@@ -18882,7 +18882,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>0.7830297150845802</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="739">
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-0.9999995549457559</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="740">
@@ -18932,7 +18932,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.9735525015946991</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="741">
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-0.7184002618290697</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="742">
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>0.9993908449705304</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="743">
@@ -19007,7 +19007,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-0.9990619322078251</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="744">
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>0.9996646627518442</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="745">
@@ -19057,7 +19057,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>0.9703232083701496</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="746">
@@ -19082,7 +19082,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>0.9971129474942932</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="747">
@@ -19107,7 +19107,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>0.0717774351942666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -19132,7 +19132,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>0.9916029082460178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -19157,7 +19157,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>0.9576862190654476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -19182,7 +19182,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>0.7874797334396895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>0.786697406330475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -19232,7 +19232,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>0.8041909706035832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -19257,7 +19257,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>0.9990309524924694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -19282,7 +19282,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>0.940986931735696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>0.956837648599133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -19332,7 +19332,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>0.9761901949286866</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="757">
@@ -19357,7 +19357,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>0.872675378140787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -19382,7 +19382,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-0.8685942093545116</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="759">
@@ -19407,7 +19407,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>0.4305286933766219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>0.993964855560505</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="761">
@@ -19457,7 +19457,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>0.7882714359186878</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="762">
@@ -19482,7 +19482,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>0.9954709452293122</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="763">
@@ -19507,7 +19507,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-0.9903618028758652</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="764">
@@ -19532,7 +19532,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>0.992634438842779</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="765">
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>0.6568492441998204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -19582,7 +19582,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.5196992315271232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>0.5647292025073458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -19632,7 +19632,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.6817639661255521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -19657,7 +19657,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>0.9980924765993684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -19682,7 +19682,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.9255088025267546</v>
+        <v>-0.4627544012633773</v>
       </c>
     </row>
     <row r="771">
@@ -19707,7 +19707,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>0.7970978475850878</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="772">
@@ -19732,7 +19732,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>0.0837232618925785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -19757,7 +19757,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>0.5767965523327001</v>
+        <v>0.2883982761663501</v>
       </c>
     </row>
     <row r="774">
@@ -19782,7 +19782,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-0.1075494041693139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -19807,7 +19807,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-0.9988820707541122</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="776">
@@ -19832,7 +19832,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>-0.6776581358459217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -19857,7 +19857,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>0.9997463279787635</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="778">
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>0.9045299328501306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -19907,7 +19907,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-0.7222369350180267</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780">
@@ -19932,7 +19932,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>0.912304868298923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -19957,7 +19957,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-0.0900871360240334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -19982,7 +19982,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-0.9999999999999938</v>
+        <v>-0.2631578947368421</v>
       </c>
     </row>
     <row r="783">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-0.4742365061259228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>0.9960343249624259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -20057,7 +20057,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-0.9997540543878281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-0.9848112720177555</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="787">
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-0.8551889248266189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -20132,7 +20132,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>0.9204436133288634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>0.9921807963044829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -20182,7 +20182,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>0.8966580332531497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -20207,7 +20207,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.9817499968964642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -20232,7 +20232,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>0.9712484085120268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -20257,7 +20257,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>0.863467064426225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -20282,7 +20282,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-0.9999999968645934</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="795">
@@ -20307,7 +20307,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.996836247277578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>0.994271021395829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -20357,7 +20357,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>0.9968185289719034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>0.8422853634468261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>0.9257177469020903</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
